--- a/lowe/edd/data/MERC$HWS.xlsx
+++ b/lowe/edd/data/MERC$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,14 +1361,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH50"/>
+  <dimension ref="A1:JI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1378,12 +1378,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2231,11 +2231,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3036,10 +3039,13 @@
         <v>117200</v>
       </c>
       <c r="JH9" s="11">
-        <v>119700</v>
+        <v>117100</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>118300</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3840,10 +3846,13 @@
         <v>105200</v>
       </c>
       <c r="JH10" s="11">
-        <v>108500</v>
+        <v>105900</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>108600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4646,8 +4655,11 @@
       <c r="JH11" s="11">
         <v>11200</v>
       </c>
+      <c r="JI11" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5448,10 +5460,13 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="JH12" s="12">
-        <v>9.4E-2</v>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6252,10 +6267,13 @@
         <v>83800</v>
       </c>
       <c r="JH13" s="11">
-        <v>87500</v>
+        <v>85400</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>87600</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7058,8 +7076,11 @@
       <c r="JH14" s="11">
         <v>15900</v>
       </c>
+      <c r="JI14" s="11">
+        <v>17200</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7860,10 +7881,13 @@
         <v>68000</v>
       </c>
       <c r="JH15" s="11">
-        <v>71600</v>
+        <v>69500</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>70400</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8664,10 +8688,13 @@
         <v>50700</v>
       </c>
       <c r="JH16" s="11">
-        <v>51300</v>
+        <v>51800</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>51400</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9470,8 +9497,11 @@
       <c r="JH17" s="11">
         <v>14300</v>
       </c>
+      <c r="JI17" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10274,8 +10304,11 @@
       <c r="JH18" s="11">
         <v>2900</v>
       </c>
+      <c r="JI18" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11078,8 +11111,11 @@
       <c r="JH19" s="11">
         <v>11400</v>
       </c>
+      <c r="JI19" s="11">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11880,10 +11916,13 @@
         <v>9700</v>
       </c>
       <c r="JH20" s="11">
-        <v>9900</v>
+        <v>9800</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12684,10 +12723,13 @@
         <v>54000</v>
       </c>
       <c r="JH21" s="11">
-        <v>57300</v>
+        <v>55200</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>56200</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13488,10 +13530,13 @@
         <v>36700</v>
       </c>
       <c r="JH22" s="11">
-        <v>37000</v>
+        <v>37500</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>37200</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14292,10 +14337,13 @@
         <v>13300</v>
       </c>
       <c r="JH23" s="11">
-        <v>13500</v>
+        <v>13700</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>13700</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15098,8 +15146,11 @@
       <c r="JH24" s="11">
         <v>1200</v>
       </c>
+      <c r="JI24" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15902,8 +15953,11 @@
       <c r="JH25" s="11">
         <v>8300</v>
       </c>
+      <c r="JI25" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16704,10 +16758,13 @@
         <v>3800</v>
       </c>
       <c r="JH26" s="11">
-        <v>4000</v>
+        <v>4200</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>4100</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17510,8 +17567,11 @@
       <c r="JH27" s="11">
         <v>200</v>
       </c>
+      <c r="JI27" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18314,8 +18374,11 @@
       <c r="JH28" s="11">
         <v>1800</v>
       </c>
+      <c r="JI28" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19116,10 +19179,13 @@
         <v>3800</v>
       </c>
       <c r="JH29" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JI29" s="11">
         <v>3600</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -19920,10 +19986,13 @@
         <v>10100</v>
       </c>
       <c r="JH30" s="11">
-        <v>10100</v>
+        <v>10600</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>34</v>
       </c>
@@ -20724,10 +20793,13 @@
         <v>6200</v>
       </c>
       <c r="JH31" s="11">
-        <v>6500</v>
+        <v>6200</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>6200</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21530,8 +21602,11 @@
       <c r="JH32" s="11">
         <v>1300</v>
       </c>
+      <c r="JI32" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22332,10 +22407,13 @@
         <v>17300</v>
       </c>
       <c r="JH33" s="11">
-        <v>20300</v>
+        <v>17700</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23138,8 +23216,11 @@
       <c r="JH34" s="11">
         <v>800</v>
       </c>
+      <c r="JI34" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -23940,10 +24021,13 @@
         <v>16500</v>
       </c>
       <c r="JH35" s="11">
-        <v>19500</v>
+        <v>16900</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>18200</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -24744,10 +24828,13 @@
         <v>3100</v>
       </c>
       <c r="JH36" s="11">
-        <v>3400</v>
+        <v>3500</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25548,10 +25635,13 @@
         <v>2500</v>
       </c>
       <c r="JH37" s="11">
-        <v>2800</v>
+        <v>2900</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>3300</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26354,8 +26444,11 @@
       <c r="JH38" s="11">
         <v>600</v>
       </c>
+      <c r="JI38" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27156,10 +27249,13 @@
         <v>13400</v>
       </c>
       <c r="JH39" s="11">
-        <v>16100</v>
+        <v>13400</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>14300</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -27962,8 +28058,11 @@
       <c r="JH40" s="11">
         <v>3900</v>
       </c>
+      <c r="JI40" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -28766,8 +28865,11 @@
       <c r="JH41" s="11">
         <v>600</v>
       </c>
+      <c r="JI41" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>106</v>
       </c>
@@ -28780,7 +28882,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>16</v>
       </c>
@@ -28793,7 +28895,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>107</v>
       </c>
@@ -28806,7 +28908,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>108</v>
       </c>
@@ -28819,7 +28921,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>109</v>
       </c>
@@ -28832,7 +28934,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>110</v>
       </c>

--- a/lowe/edd/data/MERC$HWS.xlsx
+++ b/lowe/edd/data/MERC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI50"/>
+  <dimension ref="A1:JJ50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,12 +1378,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2234,11 +2234,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3044,8 +3047,11 @@
       <c r="JI9" s="11">
         <v>118300</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>117800</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3851,8 +3857,11 @@
       <c r="JI10" s="11">
         <v>108600</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>108300</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4656,10 +4665,13 @@
         <v>11200</v>
       </c>
       <c r="JI11" s="11">
-        <v>9800</v>
+        <v>9700</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>9500</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5465,8 +5477,11 @@
       <c r="JI12" s="12">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6272,8 +6287,11 @@
       <c r="JI13" s="11">
         <v>87600</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>87400</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7077,10 +7095,13 @@
         <v>15900</v>
       </c>
       <c r="JI14" s="11">
-        <v>17200</v>
+        <v>16900</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>16700</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7884,10 +7905,13 @@
         <v>69500</v>
       </c>
       <c r="JI15" s="11">
-        <v>70400</v>
+        <v>70700</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>70700</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8691,10 +8715,13 @@
         <v>51800</v>
       </c>
       <c r="JI16" s="11">
-        <v>51400</v>
+        <v>51700</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>51500</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9498,10 +9525,13 @@
         <v>14300</v>
       </c>
       <c r="JI17" s="11">
-        <v>14200</v>
+        <v>14300</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>13900</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10307,8 +10337,11 @@
       <c r="JI18" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11112,10 +11145,13 @@
         <v>11400</v>
       </c>
       <c r="JI19" s="11">
-        <v>11400</v>
+        <v>11500</v>
+      </c>
+      <c r="JJ19" s="11">
+        <v>11100</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11921,8 +11957,11 @@
       <c r="JI20" s="11">
         <v>9800</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12726,10 +12765,13 @@
         <v>55200</v>
       </c>
       <c r="JI21" s="11">
-        <v>56200</v>
+        <v>56400</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>56800</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13533,10 +13575,13 @@
         <v>37500</v>
       </c>
       <c r="JI22" s="11">
-        <v>37200</v>
+        <v>37400</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>37600</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14342,8 +14387,11 @@
       <c r="JI23" s="11">
         <v>13700</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15149,8 +15197,11 @@
       <c r="JI24" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15956,8 +16007,11 @@
       <c r="JI25" s="11">
         <v>8400</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16763,8 +16817,11 @@
       <c r="JI26" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17570,8 +17627,11 @@
       <c r="JI27" s="11">
         <v>200</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18377,8 +18437,11 @@
       <c r="JI28" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19182,10 +19245,13 @@
         <v>3700</v>
       </c>
       <c r="JI29" s="11">
-        <v>3600</v>
+        <v>3700</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>3700</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -19989,10 +20055,13 @@
         <v>10600</v>
       </c>
       <c r="JI30" s="11">
-        <v>10400</v>
+        <v>10500</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>10500</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>34</v>
       </c>
@@ -20798,8 +20867,11 @@
       <c r="JI31" s="11">
         <v>6200</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21605,8 +21677,11 @@
       <c r="JI32" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22412,8 +22487,11 @@
       <c r="JI33" s="11">
         <v>19000</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>19200</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23219,8 +23297,11 @@
       <c r="JI34" s="11">
         <v>800</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -24026,8 +24107,11 @@
       <c r="JI35" s="11">
         <v>18200</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>18400</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -24833,8 +24917,11 @@
       <c r="JI36" s="11">
         <v>3900</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25640,8 +25727,11 @@
       <c r="JI37" s="11">
         <v>3300</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26447,8 +26537,11 @@
       <c r="JI38" s="11">
         <v>600</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27254,8 +27347,11 @@
       <c r="JI39" s="11">
         <v>14300</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>14400</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28061,8 +28157,11 @@
       <c r="JI40" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -28868,8 +28967,11 @@
       <c r="JI41" s="11">
         <v>600</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>106</v>
       </c>
@@ -28882,7 +28984,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>16</v>
       </c>
@@ -28895,7 +28997,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>107</v>
       </c>
@@ -28908,7 +29010,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>108</v>
       </c>
@@ -28921,7 +29023,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>109</v>
       </c>
@@ -28934,7 +29036,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>110</v>
       </c>

--- a/lowe/edd/data/MERC$HWS.xlsx
+++ b/lowe/edd/data/MERC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ50"/>
+  <dimension ref="A1:JL50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,12 +1378,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1411,12 +1411,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2237,11 +2237,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3048,10 +3054,16 @@
         <v>118300</v>
       </c>
       <c r="JJ9" s="11">
-        <v>117800</v>
+        <v>117700</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>115400</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>114600</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3860,8 +3872,14 @@
       <c r="JJ10" s="11">
         <v>108300</v>
       </c>
+      <c r="JK10" s="11">
+        <v>106600</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>105200</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4668,10 +4686,16 @@
         <v>9700</v>
       </c>
       <c r="JJ11" s="11">
-        <v>9500</v>
+        <v>9400</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>9400</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5480,8 +5504,14 @@
       <c r="JJ12" s="12">
         <v>0.08</v>
       </c>
+      <c r="JK12" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6290,8 +6320,14 @@
       <c r="JJ13" s="11">
         <v>87400</v>
       </c>
+      <c r="JK13" s="11">
+        <v>84600</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>82500</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7100,8 +7136,14 @@
       <c r="JJ14" s="11">
         <v>16700</v>
       </c>
+      <c r="JK14" s="11">
+        <v>14900</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7910,8 +7952,14 @@
       <c r="JJ15" s="11">
         <v>70700</v>
       </c>
+      <c r="JK15" s="11">
+        <v>69700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>69500</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8720,8 +8768,14 @@
       <c r="JJ16" s="11">
         <v>51500</v>
       </c>
+      <c r="JK16" s="11">
+        <v>50200</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>50100</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9528,10 +9582,16 @@
         <v>14300</v>
       </c>
       <c r="JJ17" s="11">
-        <v>13900</v>
+        <v>13700</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>12300</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10340,8 +10400,14 @@
       <c r="JJ18" s="11">
         <v>2800</v>
       </c>
+      <c r="JK18" s="11">
+        <v>2800</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11148,10 +11214,16 @@
         <v>11500</v>
       </c>
       <c r="JJ19" s="11">
-        <v>11100</v>
+        <v>10900</v>
+      </c>
+      <c r="JK19" s="11">
+        <v>9500</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>9600</v>
       </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11958,10 +12030,16 @@
         <v>9800</v>
       </c>
       <c r="JJ20" s="11">
-        <v>9400</v>
+        <v>9300</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>8200</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12768,10 +12846,16 @@
         <v>56400</v>
       </c>
       <c r="JJ21" s="11">
-        <v>56800</v>
+        <v>57000</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>57400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>57200</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13578,10 +13662,16 @@
         <v>37400</v>
       </c>
       <c r="JJ22" s="11">
-        <v>37600</v>
+        <v>37800</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>37900</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>37800</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14390,8 +14480,14 @@
       <c r="JJ23" s="11">
         <v>13900</v>
       </c>
+      <c r="JK23" s="11">
+        <v>14200</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>14000</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15200,8 +15296,14 @@
       <c r="JJ24" s="11">
         <v>1200</v>
       </c>
+      <c r="JK24" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16010,8 +16112,14 @@
       <c r="JJ25" s="11">
         <v>8500</v>
       </c>
+      <c r="JK25" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16820,8 +16928,14 @@
       <c r="JJ26" s="11">
         <v>4200</v>
       </c>
+      <c r="JK26" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17630,8 +17744,14 @@
       <c r="JJ27" s="11">
         <v>200</v>
       </c>
+      <c r="JK27" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18440,8 +18560,14 @@
       <c r="JJ28" s="11">
         <v>1800</v>
       </c>
+      <c r="JK28" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19248,10 +19374,16 @@
         <v>3700</v>
       </c>
       <c r="JJ29" s="11">
-        <v>3700</v>
+        <v>3900</v>
+      </c>
+      <c r="JK29" s="11">
+        <v>3900</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>3900</v>
       </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -20060,8 +20192,14 @@
       <c r="JJ30" s="11">
         <v>10500</v>
       </c>
+      <c r="JK30" s="11">
+        <v>10500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>34</v>
       </c>
@@ -20870,8 +21008,14 @@
       <c r="JJ31" s="11">
         <v>6200</v>
       </c>
+      <c r="JK31" s="11">
+        <v>6000</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21680,8 +21824,14 @@
       <c r="JJ32" s="11">
         <v>1300</v>
       </c>
+      <c r="JK32" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -22490,8 +22640,14 @@
       <c r="JJ33" s="11">
         <v>19200</v>
       </c>
+      <c r="JK33" s="11">
+        <v>19500</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>19400</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -23300,8 +23456,14 @@
       <c r="JJ34" s="11">
         <v>800</v>
       </c>
+      <c r="JK34" s="11">
+        <v>800</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -24110,8 +24272,14 @@
       <c r="JJ35" s="11">
         <v>18400</v>
       </c>
+      <c r="JK35" s="11">
+        <v>18700</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>18600</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -24918,10 +25086,16 @@
         <v>3900</v>
       </c>
       <c r="JJ36" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL36" s="11">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25728,10 +25902,16 @@
         <v>3300</v>
       </c>
       <c r="JJ37" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL37" s="11">
         <v>3400</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26540,8 +26720,14 @@
       <c r="JJ38" s="11">
         <v>600</v>
       </c>
+      <c r="JK38" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27348,10 +27534,16 @@
         <v>14300</v>
       </c>
       <c r="JJ39" s="11">
-        <v>14400</v>
+        <v>14300</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>14600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>14600</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28160,8 +28352,14 @@
       <c r="JJ40" s="11">
         <v>3900</v>
       </c>
+      <c r="JK40" s="11">
+        <v>3900</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>47</v>
       </c>
@@ -28970,8 +29168,14 @@
       <c r="JJ41" s="11">
         <v>600</v>
       </c>
+      <c r="JK41" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>106</v>
       </c>
@@ -28984,7 +29188,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>16</v>
       </c>
@@ -28997,7 +29201,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>107</v>
       </c>
@@ -29010,7 +29214,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>108</v>
       </c>
@@ -29023,7 +29227,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>109</v>
       </c>
@@ -29036,7 +29240,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>110</v>
       </c>
